--- a/data/extracted_data/raw/Takata_etal_2008_Fig1.xlsx
+++ b/data/extracted_data/raw/Takata_etal_2008_Fig1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2164E7-49E3-FF47-A8C5-B3D38B7D4003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10BD007-38F4-9E4B-9E75-8C6A310E8225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16340" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23340" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,24 +72,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -396,25 +393,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -422,335 +419,283 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2001</v>
-      </c>
       <c r="C2">
-        <v>30</v>
+        <v>30.4213483146067</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2001</v>
-      </c>
       <c r="C3">
-        <v>18</v>
+        <v>17.2752808988764</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2001</v>
-      </c>
       <c r="C4">
-        <v>12</v>
+        <v>11.292134831460601</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2001</v>
-      </c>
       <c r="C5">
-        <v>8</v>
+        <v>6.8258426966292101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2001</v>
-      </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>5.3089887640449396</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2001</v>
-      </c>
       <c r="C7">
-        <v>4</v>
+        <v>2.5280898876404398</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>2001</v>
-      </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.11797752808988</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2001</v>
-      </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.7078651685393198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>2001</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2001</v>
-      </c>
       <c r="C10">
-        <v>2.8</v>
+        <v>2.61235955056179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>2001</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>2001</v>
-      </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>2.4438202247190999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>2001</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2001</v>
-      </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>2.02247191011236</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>2001</v>
       </c>
       <c r="B13">
-        <v>2001</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2.4</v>
+        <v>2.1067415730337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>2001</v>
       </c>
       <c r="B14">
-        <v>2001</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>2.2999999999999998</v>
+        <v>1.8539325842696599</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>2002</v>
       </c>
       <c r="B15">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.2999999999999998</v>
+        <v>26.292134831460601</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>2002</v>
       </c>
       <c r="B16">
-        <v>2001</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>2.2999999999999998</v>
+        <v>15.589887640449399</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0</v>
+        <v>2002</v>
       </c>
       <c r="B17">
-        <v>2002</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>10.0280898876404</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="B18">
-        <v>2002</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>5.3089887640449396</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2</v>
+        <v>2002</v>
       </c>
       <c r="B19">
-        <v>2002</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>4.8876404494381998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3</v>
+        <v>2002</v>
       </c>
       <c r="B20">
-        <v>2002</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>7.5</v>
+        <v>2.78089887640449</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4</v>
+        <v>2002</v>
       </c>
       <c r="B21">
-        <v>2002</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>2.6966292134831402</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5</v>
+        <v>2002</v>
       </c>
       <c r="B22">
-        <v>2002</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.7078651685393198</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>6</v>
+        <v>2002</v>
       </c>
       <c r="B23">
-        <v>2002</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>3.2</v>
+        <v>2.1067415730337</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7</v>
+        <v>2002</v>
       </c>
       <c r="B24">
-        <v>2002</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>2.8</v>
+        <v>2.2752808988763999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>8</v>
+        <v>2002</v>
       </c>
       <c r="B25">
-        <v>2002</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>2.8</v>
+        <v>2.1067415730337</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>9</v>
+        <v>2002</v>
       </c>
       <c r="B26">
-        <v>2002</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2002</v>
-      </c>
-      <c r="C27">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>2002</v>
-      </c>
-      <c r="C28">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>2002</v>
-      </c>
-      <c r="C29">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>13</v>
-      </c>
-      <c r="B30">
-        <v>2002</v>
-      </c>
-      <c r="C30">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>2002</v>
-      </c>
-      <c r="C31">
-        <v>2.2999999999999998</v>
+        <v>2.1067415730337</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C14">
+    <sortCondition ref="B2:B14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>